--- a/AAA/myRepo-master/cypress/fixtures/{C,-10}.xlsx
+++ b/AAA/myRepo-master/cypress/fixtures/{C,-10}.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -372,7 +372,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>100248</v>
+        <v>131887</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
